--- a/data/trans_dic/IP21B-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP21B-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>27,37%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>35,72%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>37,91%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>15,26%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>23,48%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>45,28%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>25,73%</t>
+          <t>39,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>53,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,92%</t>
+          <t>34,42%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>32,17%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>32,29%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>44,79%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>38,49%</t>
+          <t>22,37%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>8,63; 55,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,4</t>
+          <t>12,66; 65,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,12; 52,69</t>
+          <t>0,0; 81,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 88,6</t>
+          <t>0; 30,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 76,63</t>
+          <t>11,3; 83,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>8,92; 63,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,03</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 75,25</t>
+          <t>0,0; 80,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,35</t>
+          <t>12,12; 55,03</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,36</t>
+          <t>15,78; 52,15</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,87; 42,52</t>
+          <t>11,66; 78,42</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,18; 73,51</t>
+          <t>0,0; 55,51</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>35,72%</t>
+          <t>15,26%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>37,91%</t>
+          <t>23,48%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>45,28%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>25,73%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>39,92%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>27,94%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>53,1%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>34,42%</t>
+          <t>23,92%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>32,17%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>32,29%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>44,79%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
+          <t>38,49%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,63; 55,38</t>
+          <t>0; 23,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,66; 65,17</t>
+          <t>0,0; 44,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 81,03</t>
+          <t>7,12; 52,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>0,0; 88,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,3; 83,6</t>
+          <t>0,0; 76,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,92; 63,76</t>
+          <t>0; 36,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 50,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 80,5</t>
+          <t>0,0; 75,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,12; 55,03</t>
+          <t>0,0; 38,35</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,78; 52,15</t>
+          <t>0,0; 36,36</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,66; 78,42</t>
+          <t>4,87; 42,52</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,51</t>
+          <t>10,18; 73,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP21B-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP21B-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,22 +656,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,12 +681,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -696,22 +696,22 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,91; 26,34</t>
+          <t>0,0; 22,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,58</t>
+          <t>0; 11,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,95</t>
+          <t>0; 18,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,03</t>
+          <t>0; 30,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>0; 6,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,54; 29,96</t>
+          <t>0,0; 30,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,52; 42,59</t>
+          <t>0; 15,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>0; 44,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,56; 13,61</t>
+          <t>0,0; 9,72</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,04; 23,22</t>
+          <t>0,0; 20,45</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,45; 35,45</t>
+          <t>0; 9,05</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,74</t>
+          <t>0; 20,75</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>29,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>35,72%</t>
+          <t>36,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>37,91%</t>
+          <t>40,27%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>39,92%</t>
+          <t>32,98%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>27,94%</t>
+          <t>27,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>53,1%</t>
+          <t>46,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>34,42%</t>
+          <t>36,83%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>32,17%</t>
+          <t>30,21%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>32,29%</t>
+          <t>32,3%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>44,79%</t>
+          <t>44,62%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
+          <t>29,87%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,63; 55,38</t>
+          <t>7,64; 57,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,66; 65,17</t>
+          <t>14,59; 60,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 81,03</t>
+          <t>0,0; 82,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>0,0; 73,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,3; 83,6</t>
+          <t>0,0; 69,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,92; 63,76</t>
+          <t>6,73; 54,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>17,61; 75,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 80,5</t>
+          <t>0,0; 83,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,12; 55,03</t>
+          <t>10,85; 54,56</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,78; 52,15</t>
+          <t>17,73; 50,88</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,66; 78,42</t>
+          <t>23,49; 74,16</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,51</t>
+          <t>0,0; 58,3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,27 +936,27 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>41,43%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>45,28%</t>
+          <t>32,13%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,73%</t>
+          <t>60,26%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -966,32 +966,32 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>36,81%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,92%</t>
+          <t>30,34%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>27,25%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>39,42%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>38,49%</t>
+          <t>31,32%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,0; 56,97</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 30,57</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>11,48; 75,81</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 100,0</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 100,0</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 56,93</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 84,32</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 100,0</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>7,56; 58,22</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>0; 23,25</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 44,4</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>7,12; 52,69</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 88,6</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 76,63</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0; 36,25</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 50,03</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 75,25</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 38,35</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 36,36</t>
-        </is>
-      </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,87; 42,52</t>
+          <t>15,57; 66,74</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,18; 73,51</t>
+          <t>0,0; 70,11</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
+          <t>22,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,23%</t>
+          <t>14,04%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,91%</t>
+          <t>45,6%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>16,87%</t>
+          <t>18,06%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>25,53%</t>
+          <t>33,83%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,29; 22,93</t>
+          <t>0; 36,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,1; 31,21</t>
+          <t>0,0; 61,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,93; 40,87</t>
+          <t>0,0; 53,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,31; 54,09</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 21,69</t>
+          <t>0; 44,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,22; 30,07</t>
+          <t>0; 56,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,84; 39,94</t>
+          <t>0; 30,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,85; 52,76</t>
+          <t>0; 56,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,38; 19,07</t>
+          <t>0; 23,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,75; 25,26</t>
+          <t>0,0; 55,4</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,2; 33,65</t>
+          <t>0,0; 36,51</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,11; 43,7</t>
+          <t>0,0; 77,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12,27%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>18,03%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>21,23%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>25,91%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9,72%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>15,53%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>22,51%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>25,04%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>11,16%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>16,87%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>21,88%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>25,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4,34; 24,66</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8,13; 30,15</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8,5; 39,31</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6,93; 52,11</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2,27; 21,47</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>6,97; 29,16</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>9,54; 39,7</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>7,02; 54,57</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5,61; 19,38</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>10,46; 25,64</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>13,09; 34,1</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>11,81; 43,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP21B-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP21B-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,12</t>
+          <t>0,0; 23,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,15</t>
+          <t>0,0; 29,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -764,12 +764,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,72</t>
+          <t>0,0; 11,61</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,45</t>
+          <t>0,0; 17,27</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,64; 57,6</t>
+          <t>7,47; 58,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,59; 60,61</t>
+          <t>15,58; 60,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 82,1</t>
+          <t>0,0; 82,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 73,86</t>
+          <t>0,0; 70,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 69,1</t>
+          <t>0,0; 82,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,73; 54,12</t>
+          <t>6,71; 53,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,61; 75,6</t>
+          <t>18,41; 76,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,3</t>
+          <t>0,0; 79,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,85; 54,56</t>
+          <t>13,45; 54,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,73; 50,88</t>
+          <t>17,65; 48,52</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>23,49; 74,16</t>
+          <t>20,68; 70,07</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,3</t>
+          <t>7,97; 61,92</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,97</t>
+          <t>0,0; 58,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,48; 75,81</t>
+          <t>11,37; 80,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 84,32</t>
+          <t>0,0; 83,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,56; 58,22</t>
+          <t>7,72; 66,33</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,57; 66,74</t>
+          <t>15,03; 68,64</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 70,11</t>
+          <t>0,0; 82,33</t>
         </is>
       </c>
     </row>
@@ -1149,12 +1149,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,01</t>
+          <t>0,0; 62,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,42</t>
+          <t>0,0; 60,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,4</t>
+          <t>0,0; 48,64</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,51</t>
+          <t>0,0; 44,19</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,34; 24,66</t>
+          <t>4,34; 24,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,13; 30,15</t>
+          <t>9,48; 30,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,5; 39,31</t>
+          <t>7,77; 39,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,93; 52,11</t>
+          <t>7,32; 51,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,27; 21,47</t>
+          <t>2,74; 24,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,97; 29,16</t>
+          <t>7,08; 29,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,54; 39,7</t>
+          <t>10,7; 40,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,02; 54,57</t>
+          <t>6,66; 53,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,61; 19,38</t>
+          <t>5,55; 20,01</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,46; 25,64</t>
+          <t>10,12; 25,81</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13,09; 34,1</t>
+          <t>12,13; 35,12</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,81; 43,76</t>
+          <t>11,09; 43,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP21B-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP21B-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,32 +656,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9,59%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>4,39%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -724,52 +724,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,64</t>
+          <t>0; 6,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 29,0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0; 15,69</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0; 44,41</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 21,75</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>0; 11,83</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>0; 18,74</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>0; 30,57</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0; 6,57</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 29,0</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0; 15,69</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0; 44,41</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,61</t>
+          <t>0,0; 10,69</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,27</t>
+          <t>0,0; 18,01</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>32,98%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>27,13%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>46,64%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>36,45%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>29,05%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>36,79%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>40,27%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>19,42%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>32,98%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>27,13%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>46,64%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>36,83%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>29,87%</t>
+          <t>29,36%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,47; 58,32</t>
+          <t>0,0; 82,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,58; 60,86</t>
+          <t>6,6; 53,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 82,38</t>
+          <t>17,84; 74,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 70,47</t>
+          <t>0,0; 81,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 82,58</t>
+          <t>7,55; 62,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,71; 53,45</t>
+          <t>15,9; 63,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,41; 76,45</t>
+          <t>0,0; 82,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 79,05</t>
+          <t>0,0; 80,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,45; 54,55</t>
+          <t>10,63; 54,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,65; 48,52</t>
+          <t>17,59; 48,79</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>20,68; 70,07</t>
+          <t>20,37; 69,34</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,97; 61,92</t>
+          <t>8,4; 57,93</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>60,26%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>36,81%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>28,64%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>13,51%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>41,43%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>32,13%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>60,26%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>36,81%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>30,34%</t>
+          <t>33,33%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>31,32%</t>
+          <t>31,33%</t>
         </is>
       </c>
     </row>
@@ -1004,47 +1004,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,11</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>0; 56,93</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 85,98</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 100,0</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 55,61</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>0; 30,57</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>11,37; 80,53</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>11,52; 74,69</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>0,0; 100,0</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 100,0</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0; 56,93</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 83,17</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 100,0</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,72; 66,33</t>
+          <t>7,48; 57,59</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,03; 68,64</t>
+          <t>14,73; 66,72</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 82,33</t>
+          <t>0,0; 81,51</t>
         </is>
       </c>
     </row>
@@ -1081,37 +1081,37 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>22,58%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>14,04%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>45,6%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,84%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>33,83%</t>
+          <t>32,88%</t>
         </is>
       </c>
     </row>
@@ -1144,44 +1144,44 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0; 44,41</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0; 56,93</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0; 30,57</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0; 56,93</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>0; 36,25</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 62,21</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 60,38</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 59,52</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 55,18</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>0,0; 100,0</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0; 44,41</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0; 56,93</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0; 30,57</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>0; 56,93</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
           <t>0; 23,25</t>
@@ -1189,17 +1189,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,64</t>
+          <t>0,0; 48,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,19</t>
+          <t>0,0; 44,35</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 77,16</t>
+          <t>0,0; 76,12</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>9,72%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15,53%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>22,51%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>24,34%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>12,27%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>18,03%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>21,23%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>25,91%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>9,72%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>15,53%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>22,51%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>25,69%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>25,53%</t>
+          <t>25,11%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,34; 24,53</t>
+          <t>2,51; 21,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,48; 30,58</t>
+          <t>5,22; 30,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,77; 39,12</t>
+          <t>9,84; 39,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,32; 51,12</t>
+          <t>6,57; 51,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,74; 24,36</t>
+          <t>4,29; 22,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,08; 29,73</t>
+          <t>8,1; 31,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,7; 40,69</t>
+          <t>7,93; 40,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,66; 53,93</t>
+          <t>7,28; 54,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,55; 20,01</t>
+          <t>5,38; 19,07</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,12; 25,81</t>
+          <t>9,75; 25,26</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,13; 35,12</t>
+          <t>12,2; 33,65</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,09; 43,27</t>
+          <t>11,04; 43,04</t>
         </is>
       </c>
     </row>
